--- a/H30年度/Git/04_Gitまとめ/Gitでバイナリファイル比較方法.xlsx
+++ b/H30年度/Git/04_Gitまとめ/Gitでバイナリファイル比較方法.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>■GitでExcel、Wordなどのバイナリファイルを比較する</t>
     <rPh sb="27" eb="29">
@@ -485,6 +485,29 @@
     <rPh sb="67" eb="68">
       <t>ヨ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・使用ツールのバージョン</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Git             ： 2.18.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TortoiseGit  ：2.7.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SourceTree ：2.6.9.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WinMerge   ：2.14.0.152</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -674,13 +697,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>65744</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>104167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -712,13 +735,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>179851</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>209107</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -750,13 +773,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>65744</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>104167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -788,13 +811,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>46101</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>94345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -826,13 +849,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>65744</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>104167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -864,13 +887,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>46101</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>94345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -902,13 +925,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>65744</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>104167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -940,13 +963,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>46101</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>94345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -978,13 +1001,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>236696</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>189732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1016,13 +1039,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>236696</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>189732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1054,13 +1077,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>236696</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>189732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1092,13 +1115,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>236696</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>189732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1130,13 +1153,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>56339</xdr:colOff>
-      <xdr:row>368</xdr:row>
+      <xdr:row>374</xdr:row>
       <xdr:rowOff>237411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1168,13 +1191,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>371</xdr:row>
+      <xdr:row>377</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>402</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1205,13 +1228,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>399</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>46101</xdr:colOff>
-      <xdr:row>429</xdr:row>
+      <xdr:row>435</xdr:row>
       <xdr:rowOff>94345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1243,13 +1266,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>424</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>419</xdr:row>
+      <xdr:row>425</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1303,13 +1326,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>431</xdr:row>
+      <xdr:row>437</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>37530</xdr:colOff>
-      <xdr:row>438</xdr:row>
+      <xdr:row>444</xdr:row>
       <xdr:rowOff>171220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1341,13 +1364,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>441</xdr:row>
+      <xdr:row>447</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>46101</xdr:colOff>
-      <xdr:row>471</xdr:row>
+      <xdr:row>477</xdr:row>
       <xdr:rowOff>94345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1379,13 +1402,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>354</xdr:row>
+      <xdr:row>360</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>356</xdr:row>
+      <xdr:row>362</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1439,13 +1462,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>473</xdr:row>
+      <xdr:row>479</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>37530</xdr:colOff>
-      <xdr:row>480</xdr:row>
+      <xdr:row>486</xdr:row>
       <xdr:rowOff>171220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1477,13 +1500,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>483</xdr:row>
+      <xdr:row>489</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>46101</xdr:colOff>
-      <xdr:row>513</xdr:row>
+      <xdr:row>519</xdr:row>
       <xdr:rowOff>94345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1803,7 +1826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1811,7 +1834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O527"/>
+  <dimension ref="A1:O533"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1855,285 +1878,318 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C9" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C48" s="1" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C54" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C103" s="1" t="s">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C109" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C157" s="1" t="s">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C163" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D210" s="1" t="s">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D216" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B212" s="1" t="s">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B218" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C213" s="1" t="s">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C219" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C241" s="1" t="s">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C247" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C270" s="1" t="s">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C276" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C299" s="1" t="s">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C305" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B327" s="1" t="s">
+    <row r="333" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B333" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C328" s="9"/>
-      <c r="D328" s="9"/>
-      <c r="E328" s="9"/>
-      <c r="F328" s="9"/>
-      <c r="G328" s="9"/>
-      <c r="H328" s="10" t="s">
+    <row r="334" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C334" s="9"/>
+      <c r="D334" s="9"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="9"/>
+      <c r="G334" s="9"/>
+      <c r="H334" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I328" s="10"/>
-      <c r="J328" s="10" t="s">
+      <c r="I334" s="10"/>
+      <c r="J334" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K328" s="10"/>
-      <c r="L328" s="10" t="s">
+      <c r="K334" s="10"/>
+      <c r="L334" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M328" s="10"/>
-      <c r="N328" s="10" t="s">
+      <c r="M334" s="10"/>
+      <c r="N334" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O328" s="10"/>
-    </row>
-    <row r="329" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C329" s="4" t="s">
+      <c r="O334" s="10"/>
+    </row>
+    <row r="335" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C335" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D329" s="5"/>
-      <c r="E329" s="5"/>
-      <c r="F329" s="5"/>
-      <c r="G329" s="6"/>
-      <c r="H329" s="7" t="s">
+      <c r="D335" s="5"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="6"/>
+      <c r="H335" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I329" s="8"/>
-      <c r="J329" s="7" t="s">
+      <c r="I335" s="8"/>
+      <c r="J335" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K329" s="8"/>
-      <c r="L329" s="7" t="s">
+      <c r="K335" s="8"/>
+      <c r="L335" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M329" s="8"/>
-      <c r="N329" s="7" t="s">
+      <c r="M335" s="8"/>
+      <c r="N335" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O329" s="8"/>
-    </row>
-    <row r="330" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C330" s="4" t="s">
+      <c r="O335" s="8"/>
+    </row>
+    <row r="336" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C336" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D330" s="5"/>
-      <c r="E330" s="5"/>
-      <c r="F330" s="5"/>
-      <c r="G330" s="6"/>
-      <c r="H330" s="7" t="s">
+      <c r="D336" s="5"/>
+      <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="6"/>
+      <c r="H336" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I330" s="8"/>
-      <c r="J330" s="7" t="s">
+      <c r="I336" s="8"/>
+      <c r="J336" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K330" s="8"/>
-      <c r="L330" s="7" t="s">
+      <c r="K336" s="8"/>
+      <c r="L336" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M330" s="8"/>
-      <c r="N330" s="7" t="s">
+      <c r="M336" s="8"/>
+      <c r="N336" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O330" s="8"/>
-    </row>
-    <row r="332" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C332" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="333" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C333" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="335" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B335" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="336" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B336" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="337" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B337" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="O336" s="8"/>
     </row>
     <row r="338" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C338" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="339" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C339" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B341" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B342" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="343" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B343" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C344" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="D339" s="1" t="s">
+    <row r="345" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D345" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="340" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C340" s="1" t="s">
+    <row r="346" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C346" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="D341" s="1" t="s">
+    <row r="347" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D347" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="342" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="D342" s="1" t="s">
+    <row r="348" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D348" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J342" s="3" t="s">
+      <c r="J348" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B344" s="1" t="s">
+    <row r="350" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B350" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C345" s="1" t="s">
+    <row r="351" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C351" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C371" s="1" t="s">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C377" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C399" s="1" t="s">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C405" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C431" s="1" t="s">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C437" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C441" s="1" t="s">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C447" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C473" s="1" t="s">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C479" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C483" s="1" t="s">
+    <row r="489" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C489" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="517" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B517" s="1" t="s">
+    <row r="523" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B523" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="518" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C518" s="1" t="s">
+    <row r="524" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C524" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="519" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D519" s="1" t="s">
+    <row r="525" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D525" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="520" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D520" s="1" t="s">
+    <row r="526" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D526" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="521" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C521" s="1" t="s">
+    <row r="527" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C527" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="522" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D522" s="1" t="s">
+    <row r="528" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D528" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="523" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D523" s="1" t="s">
+    <row r="529" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D529" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="526" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B526" s="1" t="s">
+    <row r="532" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B532" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="527" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D527" s="3" t="s">
+    <row r="533" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D533" s="3" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="D527" r:id="rId1"/>
-    <hyperlink ref="J342" r:id="rId2"/>
+    <hyperlink ref="D533" r:id="rId1"/>
+    <hyperlink ref="J348" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
